--- a/va_facility_data_2025-02-20/Jackie Walorski VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jackie%20Walorski%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jackie Walorski VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jackie%20Walorski%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R203cf0ffe1dd46cda0819d2ce02c744a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R67e3b94367834b05985032f43eaa50a1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4584b47cd3374c6bbf0ec24291f64211"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8235f4bb376444679025508d99d21821"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7557f5c202844df7892bb7f2716dbd5d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd0e053bc48724e3c98feab98eeda260a"/>
   </x:sheets>
 </x:workbook>
 </file>
